--- a/ceeflp_solutions.xlsx
+++ b/ceeflp_solutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="instance" sheetId="17" r:id="rId1"/>
@@ -22,11 +22,11 @@
     <sheet name="cflp_d196_1" sheetId="13" r:id="rId13"/>
     <sheet name="cflp_e196_1" sheetId="14" r:id="rId14"/>
     <sheet name="cflp_d400_1" sheetId="20" r:id="rId15"/>
-    <sheet name="geo_ZY2" sheetId="2" r:id="rId16"/>
+    <sheet name="geo_ZY" sheetId="2" r:id="rId16"/>
     <sheet name="geo_WS" sheetId="22" r:id="rId17"/>
-    <sheet name="geo_gy2" sheetId="16" r:id="rId18"/>
-    <sheet name="geo_KF4" sheetId="4" r:id="rId19"/>
-    <sheet name="geo_ZZ2" sheetId="15" r:id="rId20"/>
+    <sheet name="geo_gy" sheetId="16" r:id="rId18"/>
+    <sheet name="geo_KF" sheetId="4" r:id="rId19"/>
+    <sheet name="geo_ZZ" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="273">
   <si>
     <t>NumF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,10 +459,6 @@
   </si>
   <si>
     <t>10*200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20*100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2410,7 +2406,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZY2!$H$3:$H$7</c:f>
+              <c:f>geo_ZY!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2434,7 +2430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZY2!$K$3:$K$7</c:f>
+              <c:f>geo_ZY!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2480,7 +2476,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZY2!$H$3:$H$7</c:f>
+              <c:f>geo_ZY!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2504,7 +2500,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZY2!$L$3:$L$7</c:f>
+              <c:f>geo_ZY!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2553,7 +2549,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZY2!$H$8:$H$12</c:f>
+              <c:f>geo_ZY!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2577,7 +2573,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZY2!$K$8:$K$12</c:f>
+              <c:f>geo_ZY!$K$8:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2626,7 +2622,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZY2!$H$8:$H$12</c:f>
+              <c:f>geo_ZY!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2650,7 +2646,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZY2!$L$8:$L$12</c:f>
+              <c:f>geo_ZY!$L$8:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2897,7 +2893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_gy2!$H$3:$H$7</c:f>
+              <c:f>geo_gy!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2921,7 +2917,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_gy2!$K$3:$K$7</c:f>
+              <c:f>geo_gy!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2967,7 +2963,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_gy2!$H$3:$H$7</c:f>
+              <c:f>geo_gy!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2991,7 +2987,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_gy2!$L$3:$L$7</c:f>
+              <c:f>geo_gy!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3040,7 +3036,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_gy2!$H$8:$H$12</c:f>
+              <c:f>geo_gy!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3064,7 +3060,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_gy2!$K$8:$K$12</c:f>
+              <c:f>geo_gy!$K$8:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3113,7 +3109,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_gy2!$H$8:$H$12</c:f>
+              <c:f>geo_gy!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3137,7 +3133,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_gy2!$L$8:$L$12</c:f>
+              <c:f>geo_gy!$L$8:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3388,7 +3384,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$3:$H$7</c:f>
+              <c:f>geo_KF!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3412,7 +3408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$K$3:$K$7</c:f>
+              <c:f>geo_KF!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3461,7 +3457,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$3:$H$7</c:f>
+              <c:f>geo_KF!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3485,7 +3481,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$L$3:$L$7</c:f>
+              <c:f>geo_KF!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3534,7 +3530,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$8:$H$17</c:f>
+              <c:f>geo_KF!$H$8:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3573,7 +3569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$K$8:$K$17</c:f>
+              <c:f>geo_KF!$K$8:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3637,7 +3633,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$8:$H$17</c:f>
+              <c:f>geo_KF!$H$8:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3676,7 +3672,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$L$8:$L$17</c:f>
+              <c:f>geo_KF!$L$8:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3939,7 +3935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$3:$H$7</c:f>
+              <c:f>geo_KF!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3963,7 +3959,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$K$3:$K$7</c:f>
+              <c:f>geo_KF!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4009,7 +4005,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$3:$H$7</c:f>
+              <c:f>geo_KF!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4033,7 +4029,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$L$3:$L$7</c:f>
+              <c:f>geo_KF!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4082,7 +4078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$8:$H$12</c:f>
+              <c:f>geo_KF!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4106,7 +4102,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$K$8:$K$12</c:f>
+              <c:f>geo_KF!$K$8:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4155,7 +4151,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_KF4!$H$8:$H$12</c:f>
+              <c:f>geo_KF!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4179,7 +4175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_KF4!$L$8:$L$12</c:f>
+              <c:f>geo_KF!$L$8:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4428,7 +4424,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$I$3:$I$7</c:f>
+              <c:f>geo_ZZ!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4452,7 +4448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$L$3:$L$7</c:f>
+              <c:f>geo_ZZ!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4499,7 +4495,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$I$3:$I$7</c:f>
+              <c:f>geo_ZZ!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4523,7 +4519,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$M$3:$M$7</c:f>
+              <c:f>geo_ZZ!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4572,7 +4568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$I$8:$I$12</c:f>
+              <c:f>geo_ZZ!$I$8:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4596,7 +4592,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$L$8:$L$12</c:f>
+              <c:f>geo_ZZ!$L$8:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4646,7 +4642,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$I$8:$I$12</c:f>
+              <c:f>geo_ZZ!$I$8:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4670,7 +4666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>geo_ZZ2!$M$8:$M$12</c:f>
+              <c:f>geo_ZZ!$M$8:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -20489,30 +20485,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>146</v>
-      </c>
       <c r="G1" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="42">
         <v>300</v>
@@ -20521,21 +20517,21 @@
         <v>300</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="42">
         <v>300</v>
@@ -20544,21 +20540,21 @@
         <v>300</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="42">
         <v>60</v>
@@ -20567,21 +20563,21 @@
         <v>200</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="42">
         <v>60</v>
@@ -20590,21 +20586,21 @@
         <v>300</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="44">
         <v>196</v>
@@ -20613,21 +20609,21 @@
         <v>196</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="43">
         <v>1</v>
       </c>
       <c r="F6" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="44">
         <v>196</v>
@@ -20636,21 +20632,21 @@
         <v>196</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="43">
         <v>1</v>
       </c>
       <c r="F7" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="44">
         <v>196</v>
@@ -20659,21 +20655,21 @@
         <v>196</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="44">
         <v>196</v>
@@ -20682,21 +20678,21 @@
         <v>196</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="44">
         <v>196</v>
@@ -20705,21 +20701,21 @@
         <v>196</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="44">
         <v>105</v>
@@ -20728,10 +20724,10 @@
         <v>324</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="43">
         <v>400</v>
@@ -20742,7 +20738,7 @@
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="44">
         <v>106</v>
@@ -20751,21 +20747,21 @@
         <v>516</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="F12" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="G12" s="43" t="s">
         <v>265</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="44">
         <v>135</v>
@@ -20774,10 +20770,10 @@
         <v>1276</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="43">
         <v>40000</v>
@@ -20788,7 +20784,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="44">
         <v>146</v>
@@ -20797,21 +20793,21 @@
         <v>2999</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>172</v>
-      </c>
       <c r="G14" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="44">
         <v>320</v>
@@ -20820,16 +20816,16 @@
         <v>6752</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -24519,7 +24515,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13:AF17"/>
+      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26316,7 +26312,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26965,7 +26961,7 @@
         <v>28.669999837900001</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="T7" s="2">
         <v>33758.242758799999</v>
@@ -27066,7 +27062,7 @@
         <v>48.832999944699999</v>
       </c>
       <c r="S8" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T8" s="2">
         <v>58510.326679899998</v>
@@ -27167,7 +27163,7 @@
         <v>59.879999875999999</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T9" s="2">
         <v>56578.391721400003</v>
@@ -27268,7 +27264,7 @@
         <v>46.992000103000002</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T10" s="2">
         <v>47882.9013997</v>
@@ -27369,7 +27365,7 @@
         <v>62.066999912299998</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T11" s="2">
         <v>46174.115211600001</v>
@@ -27470,7 +27466,7 @@
         <v>54.909999847400002</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T12" s="2">
         <v>42256.967887600003</v>
@@ -27571,7 +27567,7 @@
         <v>37.542999982799998</v>
       </c>
       <c r="S13" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T13" s="2">
         <v>48777.6229599</v>
@@ -27672,7 +27668,7 @@
         <v>39.004999875999999</v>
       </c>
       <c r="S14" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T14" s="2">
         <v>45106.065919100001</v>
@@ -27773,7 +27769,7 @@
         <v>43.405000209800001</v>
       </c>
       <c r="S15" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T15" s="2">
         <v>42594.661455200003</v>
@@ -27874,7 +27870,7 @@
         <v>51.937000036199997</v>
       </c>
       <c r="S16" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T16" s="2">
         <v>40436.647459200001</v>
@@ -27975,7 +27971,7 @@
         <v>44.9100000858</v>
       </c>
       <c r="S17" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="T17" s="2">
         <v>38290.5599841</v>
@@ -29982,31 +29978,31 @@
         <v>35</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V1" s="30" t="s">
         <v>90</v>
       </c>
       <c r="W1" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="X1" s="30" t="s">
-        <v>223</v>
-      </c>
       <c r="Y1" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z1" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AA1" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AB1" s="30" t="s">
-        <v>223</v>
-      </c>
       <c r="AC1" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD1" s="10" t="s">
         <v>29</v>
@@ -30066,7 +30062,7 @@
         <v>162.66800000000001</v>
       </c>
       <c r="S2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T2" s="30">
         <v>109724.354594</v>
@@ -30162,7 +30158,7 @@
         <v>179.12700009299999</v>
       </c>
       <c r="S3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T3" s="53">
         <v>59564.216678299999</v>
@@ -30258,7 +30254,7 @@
         <v>244.825999975</v>
       </c>
       <c r="S4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T4" s="30">
         <v>58414.129464199999</v>
@@ -30354,7 +30350,7 @@
         <v>221.31800007800001</v>
       </c>
       <c r="S5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T5" s="53">
         <v>57157.223994</v>
@@ -30450,7 +30446,7 @@
         <v>181.99600005100001</v>
       </c>
       <c r="S6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T6" s="30">
         <v>55980.741966900001</v>
@@ -30546,7 +30542,7 @@
         <v>171.20299983000001</v>
       </c>
       <c r="S7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T7" s="30">
         <v>55013.138065899999</v>
@@ -30647,7 +30643,7 @@
         <v>438.424000025</v>
       </c>
       <c r="S8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T8" s="30">
         <v>57575.442316300003</v>
@@ -30748,7 +30744,7 @@
         <v>357.178999901</v>
       </c>
       <c r="S9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T9" s="30">
         <v>55852.970681999999</v>
@@ -30849,7 +30845,7 @@
         <v>420.55100011799999</v>
       </c>
       <c r="S10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T10" s="30">
         <v>53403.373497</v>
@@ -30950,7 +30946,7 @@
         <v>391.43099999399999</v>
       </c>
       <c r="S11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T11" s="30">
         <v>53628.0414255</v>
@@ -31051,7 +31047,7 @@
         <v>420.08300018300002</v>
       </c>
       <c r="S12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T12" s="30">
         <v>52516.992423800002</v>
@@ -31152,7 +31148,7 @@
         <v>284.70000004799999</v>
       </c>
       <c r="S13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T13" s="30">
         <v>60513.812549800001</v>
@@ -31253,7 +31249,7 @@
         <v>381.90400004399999</v>
       </c>
       <c r="S14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T14" s="30">
         <v>59983.101005999997</v>
@@ -31354,7 +31350,7 @@
         <v>402.06100010900002</v>
       </c>
       <c r="S15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T15" s="53">
         <v>57036.818328000001</v>
@@ -31455,7 +31451,7 @@
         <v>315.96799993500002</v>
       </c>
       <c r="S16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T16" s="30">
         <v>56155.360761999997</v>
@@ -31556,7 +31552,7 @@
         <v>293.92299985900002</v>
       </c>
       <c r="S17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T17" s="53">
         <v>54208.837200000002</v>
@@ -31756,55 +31752,55 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>23</v>
@@ -31822,22 +31818,22 @@
         <v>27</v>
       </c>
       <c r="X1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="10" t="s">
         <v>7</v>
@@ -31851,22 +31847,22 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="11">
         <v>3074.4388079669998</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="7">
         <v>7</v>
@@ -31905,7 +31901,7 @@
         <v>15.44899</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T2" s="11">
         <v>3074.4388079669998</v>
@@ -31961,7 +31957,7 @@
         <v>2141.80031229</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="7">
         <v>6</v>
@@ -32000,7 +31996,7 @@
         <v>39.881900000000002</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T3" s="11">
         <v>2141.80031229</v>
@@ -32056,7 +32052,7 @@
         <v>1954.43880797</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7">
         <v>7</v>
@@ -32095,7 +32091,7 @@
         <v>15.44899</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T4" s="12">
         <v>1954.43880797</v>
@@ -32151,7 +32147,7 @@
         <v>1840.72844986</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7">
         <v>8</v>
@@ -32190,7 +32186,7 @@
         <v>18.59599</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T5" s="12">
         <v>1840.72844986</v>
@@ -32246,7 +32242,7 @@
         <v>1739.27899811</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="7">
         <v>9</v>
@@ -32285,7 +32281,7 @@
         <v>18.11299</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T6" s="12">
         <v>1739.27899811</v>
@@ -32341,7 +32337,7 @@
         <v>1655.20588645</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7">
         <v>10</v>
@@ -32380,7 +32376,7 @@
         <v>61.225999999999999</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T7" s="12">
         <v>1655.20588645</v>
@@ -32442,7 +32438,7 @@
         <v>126.635891159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7">
         <v>6</v>
@@ -32543,7 +32539,7 @@
         <v>105.600186806</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="7">
         <v>7</v>
@@ -32644,7 +32640,7 @@
         <v>98.076389090999996</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7">
         <v>8</v>
@@ -32745,7 +32741,7 @@
         <v>86.578020835900006</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7">
         <v>9</v>
@@ -32846,7 +32842,7 @@
         <v>81.115534647800004</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="7">
         <v>10</v>
@@ -32947,7 +32943,7 @@
         <v>246.265846977</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7">
         <v>6</v>
@@ -33048,7 +33044,7 @@
         <v>216.741246867</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7">
         <v>7</v>
@@ -33149,7 +33145,7 @@
         <v>203.18410808799999</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="7">
         <v>8</v>
@@ -33250,7 +33246,7 @@
         <v>170.59930950200001</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7">
         <v>9</v>
@@ -33351,7 +33347,7 @@
         <v>159.26748041900001</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7">
         <v>10</v>
@@ -33523,11 +33519,11 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18:Q19"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33558,7 +33554,7 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>15</v>
@@ -33573,7 +33569,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>13</v>
@@ -33618,25 +33614,25 @@
         <v>27</v>
       </c>
       <c r="V1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="Y1" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>38</v>
@@ -34244,7 +34240,9 @@
       <c r="B8" s="7">
         <v>2000000</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8">
+        <v>2.59</v>
+      </c>
       <c r="D8" s="14">
         <v>1E-3</v>
       </c>
@@ -34343,7 +34341,9 @@
       <c r="B9" s="7">
         <v>2100000</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="D9" s="14">
         <v>1E-3</v>
       </c>
@@ -34442,7 +34442,9 @@
       <c r="B10" s="7">
         <v>2200000</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="D10" s="14">
         <v>1E-3</v>
       </c>
@@ -34541,7 +34543,9 @@
       <c r="B11" s="7">
         <v>2300000</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11">
+        <v>2.41</v>
+      </c>
       <c r="D11" s="14">
         <v>1E-3</v>
       </c>
@@ -34640,7 +34644,9 @@
       <c r="B12" s="7">
         <v>2400000</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12">
+        <v>2.37</v>
+      </c>
       <c r="D12" s="14">
         <v>1E-3</v>
       </c>
@@ -34739,7 +34745,9 @@
       <c r="B13" s="7">
         <v>2000000</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13">
+        <v>2.59</v>
+      </c>
       <c r="D13" s="14">
         <v>0.23</v>
       </c>
@@ -34838,7 +34846,9 @@
       <c r="B14" s="7">
         <v>2100000</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="D14" s="14">
         <v>0.22</v>
       </c>
@@ -34937,7 +34947,9 @@
       <c r="B15" s="7">
         <v>2200000</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="D15" s="14">
         <v>0.23</v>
       </c>
@@ -35036,7 +35048,9 @@
       <c r="B16" s="7">
         <v>2300000</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16">
+        <v>2.41</v>
+      </c>
       <c r="D16" s="14">
         <v>0.23</v>
       </c>
@@ -35135,7 +35149,9 @@
       <c r="B17" s="7">
         <v>2400000</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17">
+        <v>2.37</v>
+      </c>
       <c r="D17" s="14">
         <v>0.23</v>
       </c>
@@ -35385,10 +35401,10 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AF19"/>
+      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35419,7 +35435,7 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>42</v>
@@ -35434,7 +35450,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>45</v>
@@ -35479,7 +35495,7 @@
         <v>27</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>27</v>
@@ -35491,7 +35507,7 @@
         <v>27</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>27</v>
@@ -35500,7 +35516,7 @@
         <v>25</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD1" s="10" t="s">
         <v>7</v>
@@ -35523,13 +35539,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="11">
         <v>3151288.88748</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="7">
         <v>14</v>
@@ -35568,7 +35584,7 @@
         <v>338.053999901</v>
       </c>
       <c r="S2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T2" s="11">
         <v>3151288.88748</v>
@@ -35626,7 +35642,7 @@
         <v>1530160.95872</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="7">
         <v>23</v>
@@ -35665,7 +35681,7 @@
         <v>226.77099990799999</v>
       </c>
       <c r="S3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T3" s="11">
         <v>1530160.95872</v>
@@ -35723,7 +35739,7 @@
         <v>1458686.7572300001</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7">
         <v>25</v>
@@ -35762,7 +35778,7 @@
         <v>139.476999998</v>
       </c>
       <c r="S4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T4" s="12">
         <v>1459620.9491600001</v>
@@ -35820,7 +35836,7 @@
         <v>1427280.76446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7">
         <v>26</v>
@@ -35859,7 +35875,7 @@
         <v>96.113999843599998</v>
       </c>
       <c r="S5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T5" s="12">
         <v>1427280.76446</v>
@@ -35917,7 +35933,7 @@
         <v>1396683.7235300001</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="7">
         <v>27</v>
@@ -35956,7 +35972,7 @@
         <v>114.943000078</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T6" s="12">
         <v>1396683.7235300001</v>
@@ -36014,7 +36030,7 @@
         <v>1368159.59614</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7">
         <v>28</v>
@@ -36053,7 +36069,7 @@
         <v>86.969000101099994</v>
       </c>
       <c r="S7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T7" s="12">
         <v>1368159.59614</v>
@@ -36115,7 +36131,7 @@
         <v>659665.91730700003</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7">
         <v>23</v>
@@ -36154,7 +36170,7 @@
         <v>110.24300003099999</v>
       </c>
       <c r="S8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T8" s="12">
         <v>659665.91730700003</v>
@@ -36216,7 +36232,7 @@
         <v>630195.17292799999</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="7">
         <v>25</v>
@@ -36255,7 +36271,7 @@
         <v>114.667999983</v>
       </c>
       <c r="S9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T9" s="12">
         <v>631701.20643499994</v>
@@ -36317,7 +36333,7 @@
         <v>615881.49571499997</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7">
         <v>26</v>
@@ -36356,7 +36372,7 @@
         <v>101.263999939</v>
       </c>
       <c r="S10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T10" s="12">
         <v>623046.16334600002</v>
@@ -36418,7 +36434,7 @@
         <v>600048.46817899996</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7">
         <v>27</v>
@@ -36457,7 +36473,7 @@
         <v>109.39100003199999</v>
       </c>
       <c r="S11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T11" s="12">
         <v>602958.62044700002</v>
@@ -36519,7 +36535,7 @@
         <v>577353.81532699999</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="7">
         <v>28</v>
@@ -36558,7 +36574,7 @@
         <v>138.46200013199999</v>
       </c>
       <c r="S12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T12" s="12">
         <v>578050.43636699999</v>
@@ -36620,7 +36636,7 @@
         <v>983177.61865700001</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7">
         <v>23</v>
@@ -36659,7 +36675,7 @@
         <v>101.51100015599999</v>
       </c>
       <c r="S13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T13" s="12">
         <v>983177.61865700001</v>
@@ -36721,7 +36737,7 @@
         <v>947628.84287699999</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7">
         <v>25</v>
@@ -36760,7 +36776,7 @@
         <v>94.838999986600001</v>
       </c>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T14" s="12">
         <v>952231.328094</v>
@@ -36822,7 +36838,7 @@
         <v>918667.25238099997</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="7">
         <v>26</v>
@@ -36861,7 +36877,7 @@
         <v>94.190000057199995</v>
       </c>
       <c r="S15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T15" s="12">
         <v>919296.72052099998</v>
@@ -36923,7 +36939,7 @@
         <v>908931.04610399995</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7">
         <v>27</v>
@@ -36962,7 +36978,7 @@
         <v>95.174999952299999</v>
       </c>
       <c r="S16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T16" s="12">
         <v>909056.68322200002</v>
@@ -37024,7 +37040,7 @@
         <v>879997.09109300002</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7">
         <v>28</v>
@@ -37063,7 +37079,7 @@
         <v>86.417999982799998</v>
       </c>
       <c r="S17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T17" s="12">
         <v>881234.28994199994</v>
@@ -37365,7 +37381,7 @@
         <v>1138745.7205099999</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7">
         <v>13</v>
@@ -37462,7 +37478,7 @@
         <v>743107.38180500001</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="7">
         <v>13</v>
@@ -37559,7 +37575,7 @@
         <v>714898.47546900006</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7">
         <v>14</v>
@@ -37656,7 +37672,7 @@
         <v>690178.45893700002</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7">
         <v>15</v>
@@ -37753,7 +37769,7 @@
         <v>671300.56618900003</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7">
         <v>16</v>
@@ -37850,7 +37866,7 @@
         <v>659938.62328599999</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7">
         <v>16</v>
@@ -37951,7 +37967,7 @@
         <v>86895.8492692</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7">
         <v>14</v>
@@ -38053,7 +38069,7 @@
         <v>82771.937279100006</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="7">
         <v>15</v>
@@ -38155,7 +38171,7 @@
         <v>72088.089361399994</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7">
         <v>15</v>
@@ -38257,7 +38273,7 @@
         <v>66262.070605200002</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7">
         <v>16</v>
@@ -38359,7 +38375,7 @@
         <v>62461.951320400003</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7">
         <v>17</v>
@@ -38461,7 +38477,7 @@
         <v>167029.004097</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7">
         <v>14</v>
@@ -38563,7 +38579,7 @@
         <v>153585.466113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7">
         <v>15</v>
@@ -38665,7 +38681,7 @@
         <v>127709.07520200001</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="7">
         <v>15</v>
@@ -38767,7 +38783,7 @@
         <v>120988.37532399999</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="7">
         <v>16</v>
@@ -38869,7 +38885,7 @@
         <v>122406.626582</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7">
         <v>18</v>
@@ -39481,77 +39497,77 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
         <v>194</v>
-      </c>
-      <c r="L2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="17">
         <v>3.6316266489438087E-2</v>
@@ -39579,7 +39595,7 @@
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L4" s="17">
         <v>2.6130854987598928E-2</v>
@@ -39608,7 +39624,7 @@
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="17">
         <v>1.5035982281029758E-2</v>
@@ -39636,7 +39652,7 @@
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" s="17">
         <v>1.3282257117339658E-2</v>
@@ -39665,7 +39681,7 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="17">
         <v>1.3049244854330899E-2</v>
@@ -39693,7 +39709,7 @@
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L6" s="17">
         <v>8.8135883275237692E-3</v>
@@ -39722,7 +39738,7 @@
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="17">
         <v>1.3119595925572769E-2</v>
@@ -39750,7 +39766,7 @@
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="17">
         <v>1.3119595925572769E-2</v>
@@ -39779,7 +39795,7 @@
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="56">
         <v>1.2964075850606216E-2</v>
@@ -39807,7 +39823,7 @@
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L8" s="56">
         <v>7.9885390100420395E-3</v>
@@ -39836,7 +39852,7 @@
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="17">
         <v>3.6743188768412427E-2</v>
@@ -39864,7 +39880,7 @@
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L9" s="17">
         <v>2.1322272377838569E-2</v>
@@ -39893,7 +39909,7 @@
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="17">
         <v>2.6411460128679565E-2</v>
@@ -39921,7 +39937,7 @@
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L10" s="17">
         <v>2.6411460128679565E-2</v>
@@ -39950,7 +39966,7 @@
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="17">
         <v>5.3415668158875773E-2</v>
@@ -39978,7 +39994,7 @@
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L11" s="17">
         <v>2.2891734970542199E-2</v>
@@ -40007,7 +40023,7 @@
     </row>
     <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="17">
         <v>3.9691275321049879E-2</v>
@@ -40035,7 +40051,7 @@
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L12" s="17">
         <v>3.3999423364375003E-2</v>
@@ -40064,7 +40080,7 @@
     </row>
     <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="17">
         <v>6.4554136956602504E-2</v>
@@ -40092,7 +40108,7 @@
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L13" s="17">
         <v>4.210392125994411E-2</v>
@@ -40121,7 +40137,7 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="17">
         <v>1.8233311238616379E-2</v>
@@ -40149,7 +40165,7 @@
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L14" s="17">
         <v>1.5855010816236081E-2</v>
@@ -40178,7 +40194,7 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="17">
         <v>1.5553136222004049E-2</v>
@@ -40206,7 +40222,7 @@
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L15" s="17">
         <v>1.5553136222004049E-2</v>
@@ -40235,7 +40251,7 @@
     </row>
     <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="55">
         <v>6.4870128201494737E-2</v>
@@ -40263,7 +40279,7 @@
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L16" s="55">
         <v>5.7305739361616093E-2</v>
@@ -40292,7 +40308,7 @@
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="17">
         <v>3.2577959418353952E-2</v>
@@ -40320,7 +40336,7 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="17">
         <v>1.1842598172886687E-2</v>
@@ -40349,7 +40365,7 @@
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="17">
         <v>3.1200240191403328E-2</v>
@@ -40377,7 +40393,7 @@
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="17">
         <v>2.9834296898955337E-2</v>
@@ -40406,7 +40422,7 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="17">
         <f t="shared" ref="B19:I19" si="0">AVERAGE(B4:B18)</f>
@@ -40442,7 +40458,7 @@
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" ref="L19:S19" si="1">AVERAGE(L4:L18)</f>
@@ -40489,11 +40505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="U9" activeCellId="4" sqref="AC9 AA9 Y9 W9 U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40534,10 +40550,10 @@
         <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -40621,7 +40637,7 @@
         <v>37</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -40629,13 +40645,13 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
       </c>
       <c r="E2" s="4">
         <v>6419932.3877400002</v>
@@ -40683,7 +40699,7 @@
         <v>7289.6040000000003</v>
       </c>
       <c r="T2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U2" s="4">
         <v>6028136.1066100001</v>
@@ -40740,10 +40756,10 @@
         <v>3300000</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
         <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
       </c>
       <c r="E3" s="4">
         <v>3319651.07559</v>
@@ -40791,7 +40807,7 @@
         <v>2847.7959999999998</v>
       </c>
       <c r="T3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U3" s="4">
         <v>3203541.2547599999</v>
@@ -40848,10 +40864,10 @@
         <v>3500000</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
       </c>
       <c r="E4" s="4">
         <v>3251398.7444099998</v>
@@ -40899,7 +40915,7 @@
         <v>3957.8880000099998</v>
       </c>
       <c r="T4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U4" s="4">
         <v>3111052.8068900001</v>
@@ -40956,10 +40972,10 @@
         <v>3700000</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
       </c>
       <c r="E5" s="4">
         <v>3112674.8664000002</v>
@@ -41007,7 +41023,7 @@
         <v>3540.8699998900001</v>
       </c>
       <c r="T5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U5" s="4">
         <v>3029583.5199799999</v>
@@ -41064,10 +41080,10 @@
         <v>3900000</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
         <v>132</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
       </c>
       <c r="E6" s="4">
         <v>3035670.1164199999</v>
@@ -41115,7 +41131,7 @@
         <v>3962.56599998</v>
       </c>
       <c r="T6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U6" s="4">
         <v>2953391.7842399999</v>
@@ -41172,10 +41188,10 @@
         <v>4100000</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
       </c>
       <c r="E7" s="4">
         <v>2953700.1640099999</v>
@@ -41223,7 +41239,7 @@
         <v>3088.84200001</v>
       </c>
       <c r="T7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U7" s="40">
         <v>2884157.9546500002</v>
@@ -41331,7 +41347,7 @@
         <v>5890.5629999599996</v>
       </c>
       <c r="T8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U8" s="18">
         <v>258256.06944799999</v>
@@ -41439,7 +41455,7 @@
         <v>6156.4400000599999</v>
       </c>
       <c r="T9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U9" s="18">
         <v>242745.73509100001</v>
@@ -41547,7 +41563,7 @@
         <v>7304.1510000199996</v>
       </c>
       <c r="T10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U10" s="4">
         <v>226523.84648099999</v>
@@ -41655,7 +41671,7 @@
         <v>7318.9179999799999</v>
       </c>
       <c r="T11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U11" s="4">
         <v>217504.54078000001</v>
@@ -41763,7 +41779,7 @@
         <v>4487.66100001</v>
       </c>
       <c r="T12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U12" s="4">
         <v>211292.91046499999</v>
@@ -41871,7 +41887,7 @@
         <v>4541.8309998499999</v>
       </c>
       <c r="T13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U13" s="4">
         <v>488494.55312300002</v>
@@ -41979,7 +41995,7 @@
         <v>6269.9140000300004</v>
       </c>
       <c r="T14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U14" s="4">
         <v>502758.08593200002</v>
@@ -42087,7 +42103,7 @@
         <v>7101.0109999200004</v>
       </c>
       <c r="T15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U15" s="4">
         <v>451520.085685</v>
@@ -42195,7 +42211,7 @@
         <v>6371.5349998499996</v>
       </c>
       <c r="T16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U16" s="4">
         <v>412720.18974599999</v>
@@ -42303,7 +42319,7 @@
         <v>7144.8139998899996</v>
       </c>
       <c r="T17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U17" s="4">
         <v>435967.58524699998</v>
@@ -42495,18 +42511,18 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="48"/>
       <c r="C1" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="49"/>
       <c r="F1" s="57"/>
       <c r="G1" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H1" s="57"/>
       <c r="J1" s="57"/>
       <c r="K1" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L1" s="57"/>
       <c r="N1" s="57"/>
@@ -42514,80 +42530,80 @@
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="50"/>
       <c r="C2" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="57"/>
       <c r="G2" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J2" s="57"/>
       <c r="K2" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L2" s="57"/>
       <c r="M2" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="49">
         <v>0</v>
@@ -42628,10 +42644,10 @@
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="49">
         <v>0</v>
@@ -42672,10 +42688,10 @@
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="49">
         <v>0</v>
@@ -42716,10 +42732,10 @@
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="49">
         <v>0</v>
@@ -42760,10 +42776,10 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="49">
         <v>0</v>
@@ -42804,10 +42820,10 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="49">
         <v>0</v>
@@ -42848,10 +42864,10 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="49">
         <v>0</v>
@@ -42892,10 +42908,10 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="49">
         <v>0</v>
@@ -42936,10 +42952,10 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="49">
         <v>0</v>
@@ -42980,10 +42996,10 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="49">
         <v>0</v>
@@ -43024,10 +43040,10 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="49">
         <v>0</v>
@@ -43068,10 +43084,10 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>268</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>269</v>
       </c>
       <c r="C15" s="49">
         <v>0</v>
@@ -43112,10 +43128,10 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="49">
         <v>0</v>
@@ -43156,10 +43172,10 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="49">
         <v>0</v>
@@ -43200,10 +43216,10 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="55">
         <v>3.3500000000000002E-2</v>
@@ -43244,7 +43260,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="17">
         <f>AVERAGE(C4:C18)</f>
@@ -43318,7 +43334,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18:Q19"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45177,108 +45193,108 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="U1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
       </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
@@ -45287,7 +45303,7 @@
         <v>8377.9012459999994</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -45326,7 +45342,7 @@
         <v>61.155999000000001</v>
       </c>
       <c r="S2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T2" s="4">
         <v>8377.9012459999994</v>
@@ -45373,13 +45389,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -45388,7 +45404,7 @@
         <v>6449.2506460000004</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -45427,7 +45443,7 @@
         <v>70.761000156400002</v>
       </c>
       <c r="S3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T3" s="4">
         <v>6449.2506460000004</v>
@@ -45474,7 +45490,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4">
         <v>2100</v>
@@ -45489,7 +45505,7 @@
         <v>6325.7961720000003</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -45528,7 +45544,7 @@
         <v>79.687999963799996</v>
       </c>
       <c r="S4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T4" s="4">
         <v>6325.7961720000003</v>
@@ -45575,13 +45591,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5">
         <v>2200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -45590,7 +45606,7 @@
         <v>6203.6832100000001</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -45629,7 +45645,7 @@
         <v>76.760999917999996</v>
       </c>
       <c r="S5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T5" s="4">
         <v>6203.6832100000001</v>
@@ -45676,13 +45692,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>2300</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
@@ -45691,7 +45707,7 @@
         <v>6125.9832990000004</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -45730,7 +45746,7 @@
         <v>71.589999914200007</v>
       </c>
       <c r="S6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T6" s="4">
         <v>6125.9832990000004</v>
@@ -45777,13 +45793,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7">
         <v>2400</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -45792,7 +45808,7 @@
         <v>6044.0596809999997</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -45831,7 +45847,7 @@
         <v>72.150000095400003</v>
       </c>
       <c r="S7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T7" s="4">
         <v>6044.0596809999997</v>
@@ -45878,7 +45894,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -45893,7 +45909,7 @@
         <v>575.97759069799997</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="29">
         <v>15</v>
@@ -45932,7 +45948,7 @@
         <v>96.715000000000003</v>
       </c>
       <c r="S8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T8" s="30">
         <v>575.97759069799997</v>
@@ -45980,7 +45996,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9">
         <v>2100</v>
@@ -45995,7 +46011,7 @@
         <v>596.33646533700005</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="29">
         <v>16</v>
@@ -46034,7 +46050,7 @@
         <v>86.828990000000005</v>
       </c>
       <c r="S9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T9" s="30">
         <v>596.33646533700005</v>
@@ -46082,7 +46098,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10">
         <v>2200</v>
@@ -46097,7 +46113,7 @@
         <v>580.71126350300005</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G10" s="29">
         <v>16</v>
@@ -46136,7 +46152,7 @@
         <v>83.912999999999997</v>
       </c>
       <c r="S10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T10" s="30">
         <v>580.71126350300005</v>
@@ -46184,7 +46200,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11">
         <v>2300</v>
@@ -46199,7 +46215,7 @@
         <v>597.58939165200002</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="29">
         <v>17</v>
@@ -46238,7 +46254,7 @@
         <v>87.575000000000003</v>
       </c>
       <c r="S11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T11" s="30">
         <v>597.58939165200002</v>
@@ -46286,7 +46302,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>2400</v>
@@ -46301,7 +46317,7 @@
         <v>575.37698860800003</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="29">
         <v>16</v>
@@ -46340,7 +46356,7 @@
         <v>79.325000000000003</v>
       </c>
       <c r="S12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T12" s="30">
         <v>575.37698860800003</v>
@@ -46388,7 +46404,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -46403,7 +46419,7 @@
         <v>1161.14569093</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="29">
         <v>15</v>
@@ -46442,7 +46458,7 @@
         <v>63.11</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T13" s="30">
         <v>1161.14569093</v>
@@ -46489,7 +46505,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14">
         <v>2100</v>
@@ -46543,7 +46559,7 @@
         <v>54.417999899999998</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T14" s="30">
         <v>1167.3857349100001</v>
@@ -46590,7 +46606,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15">
         <v>2200</v>
@@ -46605,7 +46621,7 @@
         <v>1150.94410513</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G15" s="29">
         <v>16</v>
@@ -46644,7 +46660,7 @@
         <v>56.444000000000003</v>
       </c>
       <c r="S15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T15" s="30">
         <v>1150.94410513</v>
@@ -46691,7 +46707,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16">
         <v>2300</v>
@@ -46706,7 +46722,7 @@
         <v>1154.0483414600001</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G16" s="29">
         <v>17</v>
@@ -46745,7 +46761,7 @@
         <v>60.449999800000001</v>
       </c>
       <c r="S16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T16" s="30">
         <v>1154.0483414600001</v>
@@ -46792,7 +46808,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17">
         <v>2400</v>
@@ -46846,7 +46862,7 @@
         <v>53.993999000000002</v>
       </c>
       <c r="S17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T17" s="30">
         <v>1134.9397683899999</v>
@@ -46996,7 +47012,7 @@
   <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -47122,7 +47138,7 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -49011,7 +49027,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -51020,7 +51036,7 @@
         <v>2.3429999351499999</v>
       </c>
       <c r="S3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T3" s="30">
         <v>142</v>
@@ -51119,7 +51135,7 @@
         <v>2.27399992943</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T4" s="30">
         <v>122</v>
@@ -51218,7 +51234,7 @@
         <v>2.3220000267000001</v>
       </c>
       <c r="S5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T5" s="30">
         <v>106</v>
@@ -51317,7 +51333,7 @@
         <v>2.6400001048999999</v>
       </c>
       <c r="S6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T6" s="30">
         <v>95</v>
@@ -51416,7 +51432,7 @@
         <v>2.4089999198899998</v>
       </c>
       <c r="S7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T7" s="30">
         <v>84</v>
@@ -51517,7 +51533,7 @@
         <v>2.5869998931899998</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T8" s="30">
         <v>6.6203115928500003</v>
@@ -51618,7 +51634,7 @@
         <v>7.1909999847400004</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T9" s="30">
         <v>5.1504579183899999</v>
@@ -51719,7 +51735,7 @@
         <v>3.1570000648500001</v>
       </c>
       <c r="S10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T10" s="30">
         <v>4.7384274503399997</v>
@@ -51820,7 +51836,7 @@
         <v>7.3399999141699999</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T11" s="30">
         <v>3.9475478232199999</v>
@@ -51921,7 +51937,7 @@
         <v>2.56900000572</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T12" s="30">
         <v>3.3933376600099998</v>
@@ -52022,7 +52038,7 @@
         <v>6.89699983597</v>
       </c>
       <c r="S13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T13" s="30">
         <v>10.550252497600001</v>
@@ -52123,7 +52139,7 @@
         <v>2.3399999141699999</v>
       </c>
       <c r="S14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T14" s="30">
         <v>8.5424866675099995</v>
@@ -52224,7 +52240,7 @@
         <v>7.1559998989100002</v>
       </c>
       <c r="S15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T15" s="30">
         <v>7.8205538070699996</v>
@@ -52325,7 +52341,7 @@
         <v>3.0139999389600001</v>
       </c>
       <c r="S16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T16" s="30">
         <v>6.8519733618899998</v>
@@ -52426,7 +52442,7 @@
         <v>7.1059999465899999</v>
       </c>
       <c r="S17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T17" s="30">
         <v>5.7913288590700001</v>
